--- a/Shablon/AKIP-4131-2A.xlsx
+++ b/Shablon/AKIP-4131-2A.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="363">
   <si>
     <t>Параметр</t>
   </si>
@@ -1616,23 +1616,6 @@
   <si>
     <t>tr4_9</t>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10//</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -1642,7 +1625,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1710,6 +1693,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1888,8 +1876,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2046,6 +2035,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2112,10 +2105,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2124,6 +2113,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2132,29 +2145,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2163,10 +2172,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2179,14 +2184,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2211,18 +2208,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2231,9 +2216,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2566,7 +2555,7 @@
   <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2584,17 +2573,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -2623,18 +2612,19 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="91" t="str">
+        <f>"Протокол периодической поверки №10/"&amp;H113&amp;"/"&amp;H5</f>
+        <v>Протокол периодической поверки №10/_date/_type</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2668,11 +2658,11 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="33" t="s">
         <v>118</v>
       </c>
@@ -2688,11 +2678,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="37" t="s">
         <v>120</v>
       </c>
@@ -2706,47 +2696,47 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="76">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="80">
         <v>2022</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="76" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="37" t="s">
         <v>121</v>
       </c>
@@ -2760,37 +2750,37 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="81" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="84" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -2849,19 +2839,19 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="79" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2872,19 +2862,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2895,19 +2885,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="71" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="73" t="s">
+      <c r="E17" s="77"/>
+      <c r="F17" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2918,19 +2908,19 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="73" t="s">
+      <c r="E18" s="77"/>
+      <c r="F18" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="74"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3138,23 +3128,23 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="79" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="47" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="48"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3163,9 +3153,9 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="88"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
@@ -3178,8 +3168,8 @@
       <c r="G31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3188,13 +3178,13 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="42" t="s">
         <v>131</v>
       </c>
@@ -3207,10 +3197,10 @@
       <c r="G32" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3219,11 +3209,11 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="42" t="s">
         <v>135</v>
       </c>
@@ -3236,8 +3226,8 @@
       <c r="G33" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3246,13 +3236,13 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="42" t="s">
         <v>136</v>
       </c>
@@ -3265,10 +3255,10 @@
       <c r="G34" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3277,11 +3267,11 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="60" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="42" t="s">
         <v>137</v>
       </c>
@@ -3294,8 +3284,8 @@
       <c r="G35" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3304,13 +3294,13 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="42" t="s">
         <v>138</v>
       </c>
@@ -3323,10 +3313,10 @@
       <c r="G36" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="62"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3335,11 +3325,11 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="42" t="s">
         <v>139</v>
       </c>
@@ -3352,8 +3342,8 @@
       <c r="G37" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3362,13 +3352,13 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="42" t="s">
         <v>140</v>
       </c>
@@ -3381,10 +3371,10 @@
       <c r="G38" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="62" t="s">
+      <c r="H38" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="62"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3393,11 +3383,11 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="42" t="s">
         <v>141</v>
       </c>
@@ -3410,8 +3400,8 @@
       <c r="G39" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3420,13 +3410,13 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="42" t="s">
         <v>142</v>
       </c>
@@ -3439,10 +3429,10 @@
       <c r="G40" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="62"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3451,11 +3441,11 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="60" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="42" t="s">
         <v>143</v>
       </c>
@@ -3468,8 +3458,8 @@
       <c r="G41" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3478,13 +3468,13 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="61"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="42" t="s">
         <v>144</v>
       </c>
@@ -3497,10 +3487,10 @@
       <c r="G42" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="62"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3509,11 +3499,11 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="67" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="42" t="s">
         <v>145</v>
       </c>
@@ -3526,8 +3516,8 @@
       <c r="G43" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3536,13 +3526,13 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="61"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="42" t="s">
         <v>146</v>
       </c>
@@ -3555,10 +3545,10 @@
       <c r="G44" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="62" t="s">
+      <c r="H44" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3567,11 +3557,11 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="67" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="42" t="s">
         <v>147</v>
       </c>
@@ -3584,8 +3574,8 @@
       <c r="G45" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3594,13 +3584,13 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="42" t="s">
         <v>148</v>
       </c>
@@ -3613,10 +3603,10 @@
       <c r="G46" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="62"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3625,11 +3615,11 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="61"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="42" t="s">
         <v>149</v>
       </c>
@@ -3642,8 +3632,8 @@
       <c r="G47" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3652,13 +3642,13 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="42" t="s">
         <v>150</v>
       </c>
@@ -3671,10 +3661,10 @@
       <c r="G48" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="62"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3683,7 +3673,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="63" t="s">
         <v>42</v>
       </c>
@@ -3700,8 +3690,8 @@
       <c r="G49" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3710,13 +3700,13 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="61"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="42" t="s">
         <v>152</v>
       </c>
@@ -3729,10 +3719,10 @@
       <c r="G50" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="62" t="s">
+      <c r="H50" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="62"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3741,7 +3731,7 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="63" t="s">
         <v>46</v>
       </c>
@@ -3758,8 +3748,8 @@
       <c r="G51" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3768,13 +3758,13 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="61"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="42" t="s">
         <v>154</v>
       </c>
@@ -3787,10 +3777,10 @@
       <c r="G52" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="62" t="s">
+      <c r="H52" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I52" s="62"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3799,7 +3789,7 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="63" t="s">
         <v>48</v>
       </c>
@@ -3816,8 +3806,8 @@
       <c r="G53" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3826,13 +3816,13 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="61"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="42" t="s">
         <v>156</v>
       </c>
@@ -3845,10 +3835,10 @@
       <c r="G54" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="62"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3857,7 +3847,7 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="63" t="s">
         <v>76</v>
       </c>
@@ -3874,8 +3864,8 @@
       <c r="G55" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3901,17 +3891,17 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3937,23 +3927,23 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="79" t="s">
+      <c r="C59" s="49"/>
+      <c r="D59" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="47" t="s">
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="48"/>
+      <c r="I59" s="49"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3962,9 +3952,9 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="22" t="s">
         <v>10</v>
       </c>
@@ -3977,8 +3967,8 @@
       <c r="G60" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3987,13 +3977,13 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="61"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="42" t="s">
         <v>227</v>
       </c>
@@ -4006,10 +3996,10 @@
       <c r="G61" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="H61" s="62" t="s">
+      <c r="H61" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I61" s="62"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4018,11 +4008,11 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="60" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="61"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="42" t="s">
         <v>231</v>
       </c>
@@ -4035,8 +4025,8 @@
       <c r="G62" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4045,13 +4035,13 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="61"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="42" t="s">
         <v>232</v>
       </c>
@@ -4064,10 +4054,10 @@
       <c r="G63" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="H63" s="62" t="s">
+      <c r="H63" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="62"/>
+      <c r="I63" s="45"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4076,11 +4066,11 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
-      <c r="B64" s="60" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="61"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="42" t="s">
         <v>233</v>
       </c>
@@ -4093,8 +4083,8 @@
       <c r="G64" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4103,13 +4093,13 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="61"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="42" t="s">
         <v>234</v>
       </c>
@@ -4122,10 +4112,10 @@
       <c r="G65" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4134,11 +4124,11 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="67" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="68"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="42" t="s">
         <v>235</v>
       </c>
@@ -4151,8 +4141,8 @@
       <c r="G66" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4161,13 +4151,13 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="61"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="42" t="s">
         <v>236</v>
       </c>
@@ -4180,10 +4170,10 @@
       <c r="G67" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="H67" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="62"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4192,11 +4182,11 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
-      <c r="B68" s="67" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="68"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="42" t="s">
         <v>237</v>
       </c>
@@ -4209,8 +4199,8 @@
       <c r="G68" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4219,13 +4209,13 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="61"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="42" t="s">
         <v>238</v>
       </c>
@@ -4238,10 +4228,10 @@
       <c r="G69" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="62" t="s">
+      <c r="H69" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I69" s="62"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4250,7 +4240,7 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="63" t="s">
         <v>102</v>
       </c>
@@ -4267,8 +4257,8 @@
       <c r="G70" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4277,13 +4267,13 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="61"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="42" t="s">
         <v>240</v>
       </c>
@@ -4296,10 +4286,10 @@
       <c r="G71" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="H71" s="62" t="s">
+      <c r="H71" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="62"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4308,7 +4298,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="63" t="s">
         <v>104</v>
       </c>
@@ -4325,8 +4315,8 @@
       <c r="G72" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4335,13 +4325,13 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="61"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="42" t="s">
         <v>242</v>
       </c>
@@ -4354,10 +4344,10 @@
       <c r="G73" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="62"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4366,7 +4356,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="63" t="s">
         <v>106</v>
       </c>
@@ -4383,8 +4373,8 @@
       <c r="G74" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4428,24 +4418,24 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:15" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72" t="s">
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="72"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="30"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="88"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="22" t="s">
         <v>10</v>
       </c>
@@ -4458,8 +4448,8 @@
       <c r="E79" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
       <c r="H79" s="30"/>
       <c r="I79" s="12"/>
     </row>
@@ -4479,10 +4469,10 @@
       <c r="E80" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F80" s="48">
         <v>200</v>
       </c>
-      <c r="G80" s="48"/>
+      <c r="G80" s="49"/>
       <c r="H80" s="30"/>
       <c r="I80" s="12"/>
     </row>
@@ -4502,8 +4492,8 @@
       <c r="E81" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="51"/>
       <c r="H81" s="30"/>
       <c r="I81" s="12"/>
     </row>
@@ -4523,8 +4513,8 @@
       <c r="E82" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="51"/>
       <c r="H82" s="30"/>
       <c r="I82" s="12"/>
     </row>
@@ -4544,8 +4534,8 @@
       <c r="E83" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="51"/>
       <c r="H83" s="28"/>
       <c r="I83" s="12"/>
     </row>
@@ -4565,8 +4555,8 @@
       <c r="E84" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="51"/>
       <c r="H84" s="28"/>
       <c r="I84" s="12"/>
     </row>
@@ -4586,8 +4576,8 @@
       <c r="E85" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="51"/>
       <c r="H85" s="28"/>
       <c r="I85" s="12"/>
     </row>
@@ -4607,8 +4597,8 @@
       <c r="E86" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="51"/>
       <c r="H86" s="28"/>
       <c r="I86" s="12"/>
     </row>
@@ -4628,8 +4618,8 @@
       <c r="E87" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
       <c r="H87" s="28"/>
       <c r="I87" s="12"/>
     </row>
@@ -4649,8 +4639,8 @@
       <c r="E88" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="28"/>
       <c r="I88" s="12"/>
     </row>
@@ -4670,8 +4660,8 @@
       <c r="E89" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="51"/>
       <c r="H89" s="28"/>
       <c r="I89" s="12"/>
     </row>
@@ -4691,8 +4681,8 @@
       <c r="E90" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="51"/>
-      <c r="G90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
       <c r="H90" s="28"/>
       <c r="I90" s="12"/>
     </row>
@@ -4750,19 +4740,19 @@
       <c r="O93" s="15"/>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="87" t="s">
+      <c r="A94" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="72" t="s">
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="72"/>
+      <c r="G94" s="69"/>
       <c r="H94" s="30"/>
       <c r="I94" s="31"/>
       <c r="J94" s="12"/>
@@ -4773,7 +4763,7 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="88"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="13" t="s">
         <v>10</v>
       </c>
@@ -4786,8 +4776,8 @@
       <c r="E95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
       <c r="H95" s="30"/>
       <c r="I95" s="23"/>
       <c r="J95" s="12"/>
@@ -4809,10 +4799,10 @@
       <c r="E96" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="F96" s="53">
+      <c r="F96" s="54">
         <v>1.8</v>
       </c>
-      <c r="G96" s="54"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="30"/>
       <c r="I96" s="23"/>
       <c r="J96" s="12"/>
@@ -4834,8 +4824,8 @@
       <c r="E97" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="30"/>
       <c r="I97" s="23"/>
       <c r="J97" s="12"/>
@@ -4857,8 +4847,8 @@
       <c r="E98" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="30"/>
       <c r="I98" s="23"/>
       <c r="J98" s="12"/>
@@ -4880,8 +4870,8 @@
       <c r="E99" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="57"/>
       <c r="H99" s="31"/>
       <c r="I99" s="26"/>
       <c r="J99" s="12"/>
@@ -4903,8 +4893,8 @@
       <c r="E100" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="55"/>
-      <c r="G100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="31"/>
       <c r="I100" s="26"/>
       <c r="J100" s="12"/>
@@ -4926,8 +4916,8 @@
       <c r="E101" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="55"/>
-      <c r="G101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="31"/>
       <c r="I101" s="26"/>
       <c r="J101" s="12"/>
@@ -4949,8 +4939,8 @@
       <c r="E102" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="F102" s="55"/>
-      <c r="G102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="31"/>
       <c r="I102" s="26"/>
       <c r="J102" s="12"/>
@@ -4972,8 +4962,8 @@
       <c r="E103" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="F103" s="55"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="31"/>
       <c r="I103" s="26"/>
       <c r="J103" s="12"/>
@@ -4995,8 +4985,8 @@
       <c r="E104" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="F104" s="57"/>
-      <c r="G104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="59"/>
       <c r="H104" s="31"/>
       <c r="I104" s="26"/>
       <c r="J104" s="12"/>
@@ -5044,28 +5034,28 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="72" t="s">
+      <c r="B108" s="45"/>
+      <c r="C108" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:11" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="90">
+      <c r="A109" s="89">
         <v>94.8</v>
       </c>
-      <c r="B109" s="90"/>
-      <c r="C109" s="62">
+      <c r="B109" s="89"/>
+      <c r="C109" s="45">
         <v>250</v>
       </c>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
     </row>
@@ -5111,27 +5101,27 @@
       <c r="K112" s="15"/>
     </row>
     <row r="113" spans="1:15" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="45"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D113" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="46"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="39" t="s">
         <v>128</v>
       </c>
       <c r="G113" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="46" t="s">
+      <c r="H113" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="46"/>
+      <c r="I113" s="47"/>
     </row>
     <row r="114" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
@@ -5680,9 +5670,12 @@
     <mergeCell ref="H40:I41"/>
     <mergeCell ref="H46:I47"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="H34:I35"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C52"/>
@@ -5695,14 +5688,8 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="H34:I35"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="H32:I33"/>
@@ -5777,6 +5764,9 @@
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="C108:E108"/>
     <mergeCell ref="H63:I64"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:G79"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.31496062992125984" top="0.74803149606299213" bottom="0.75181159420289856" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Shablon/AKIP-4131-2A.xlsx
+++ b/Shablon/AKIP-4131-2A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1625,7 +1625,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1674,30 +1674,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1878,7 +1861,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1919,306 +1902,306 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2555,47 +2538,48 @@
   <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="8" width="9.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2612,19 +2596,19 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="str">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="str">
         <f>"Протокол периодической поверки №10/"&amp;H113&amp;"/"&amp;H5</f>
         <v>Протокол периодической поверки №10/_date/_type</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2636,156 +2620,156 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="4" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="36" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="80">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63">
         <v>2022</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="80" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="86" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2802,7 +2786,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2821,7 +2805,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2838,20 +2822,20 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:19" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="73" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="69"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2861,20 +2845,20 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="86"/>
+      <c r="F16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="79"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2884,20 +2868,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+    <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="77" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78" t="s">
+      <c r="E17" s="86"/>
+      <c r="F17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2907,20 +2891,20 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="77" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78" t="s">
+      <c r="E18" s="86"/>
+      <c r="F18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="79"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2930,7 +2914,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -2947,26 +2931,26 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2983,7 +2967,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -3002,7 +2986,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3019,7 +3003,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -3038,7 +3022,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3055,7 +3039,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -3074,7 +3058,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3091,7 +3075,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -3110,7 +3094,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3127,24 +3111,24 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="73" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="48" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="49"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3152,24 +3136,24 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="22" t="s">
+    <row r="31" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3177,30 +3161,30 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="45"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3208,26 +3192,26 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="42" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3235,30 +3219,30 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="45"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3266,26 +3250,26 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="61" t="s">
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="49"/>
+      <c r="D35" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3293,30 +3277,30 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="42" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="45"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3324,26 +3308,26 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="61" t="s">
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="42" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3351,30 +3335,30 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="42" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="45"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3382,26 +3366,26 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="42" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3409,30 +3393,30 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="42" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="45"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3440,26 +3424,26 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="61" t="s">
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3467,30 +3451,30 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="45"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3498,26 +3482,26 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="65" t="s">
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="42" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3525,30 +3509,30 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="42" t="s">
+      <c r="C44" s="49"/>
+      <c r="D44" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3556,26 +3540,26 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="65" t="s">
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="42" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G45" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3583,30 +3567,30 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="42" t="s">
+      <c r="C46" s="49"/>
+      <c r="D46" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="45"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3614,26 +3598,26 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="61" t="s">
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
+      <c r="B47" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="42" t="s">
+      <c r="C47" s="49"/>
+      <c r="D47" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3641,30 +3625,30 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="42" t="s">
+      <c r="C48" s="49"/>
+      <c r="D48" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="45"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3672,26 +3656,26 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="63" t="s">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="42" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3699,30 +3683,30 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="42" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="45"/>
+      <c r="I50" s="38"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3730,26 +3714,26 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="63" t="s">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
+      <c r="B51" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="42" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3757,30 +3741,30 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="42" t="s">
+      <c r="C52" s="49"/>
+      <c r="D52" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="45" t="s">
+      <c r="H52" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I52" s="45"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3788,26 +3772,26 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="63" t="s">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
+      <c r="B53" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="42" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3815,30 +3799,30 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="42" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="45"/>
+      <c r="I54" s="38"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3846,26 +3830,26 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="63" t="s">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="42" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3873,16 +3857,16 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+    <row r="56" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3890,18 +3874,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3909,16 +3893,16 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+    <row r="58" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3926,24 +3910,24 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+    <row r="59" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="73" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="48" t="s">
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="49"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3951,24 +3935,24 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="22" t="s">
+    <row r="60" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="53"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3976,30 +3960,30 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+    <row r="61" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="42" t="s">
+      <c r="C61" s="49"/>
+      <c r="D61" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="H61" s="45" t="s">
+      <c r="H61" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I61" s="45"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4007,26 +3991,26 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="61" t="s">
+    <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
+      <c r="B62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="42" t="s">
+      <c r="C62" s="49"/>
+      <c r="D62" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4034,30 +4018,30 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
+    <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="42" t="s">
+      <c r="C63" s="49"/>
+      <c r="D63" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H63" s="45" t="s">
+      <c r="H63" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="45"/>
+      <c r="I63" s="38"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4065,26 +4049,26 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="61" t="s">
+    <row r="64" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
+      <c r="B64" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="42" t="s">
+      <c r="C64" s="49"/>
+      <c r="D64" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4092,30 +4076,30 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
+    <row r="65" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="42" t="s">
+      <c r="C65" s="49"/>
+      <c r="D65" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I65" s="45"/>
+      <c r="I65" s="38"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4123,26 +4107,26 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
-      <c r="B66" s="65" t="s">
+    <row r="66" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
+      <c r="B66" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="42" t="s">
+      <c r="C66" s="53"/>
+      <c r="D66" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4150,30 +4134,30 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+    <row r="67" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="42" t="s">
+      <c r="C67" s="49"/>
+      <c r="D67" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H67" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="45"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4181,26 +4165,26 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
-      <c r="B68" s="65" t="s">
+    <row r="68" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="38"/>
+      <c r="B68" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="42" t="s">
+      <c r="C68" s="53"/>
+      <c r="D68" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4208,30 +4192,30 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="s">
+    <row r="69" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="42" t="s">
+      <c r="C69" s="49"/>
+      <c r="D69" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="45" t="s">
+      <c r="H69" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I69" s="45"/>
+      <c r="I69" s="38"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4239,26 +4223,26 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
-      <c r="B70" s="63" t="s">
+    <row r="70" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="42" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="42" t="s">
+      <c r="G70" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4266,30 +4250,30 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="45" t="s">
+    <row r="71" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="42" t="s">
+      <c r="C71" s="49"/>
+      <c r="D71" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="42" t="s">
+      <c r="F71" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="H71" s="45" t="s">
+      <c r="H71" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="45"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4297,26 +4281,26 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
-      <c r="B72" s="63" t="s">
+    <row r="72" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="38"/>
+      <c r="B72" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="42" t="s">
+      <c r="C72" s="51"/>
+      <c r="D72" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="F72" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4324,30 +4308,30 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="45" t="s">
+    <row r="73" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="42" t="s">
+      <c r="C73" s="49"/>
+      <c r="D73" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="H73" s="45" t="s">
+      <c r="H73" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="45"/>
+      <c r="I73" s="38"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4355,26 +4339,26 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="63" t="s">
+    <row r="74" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="38"/>
+      <c r="B74" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="42" t="s">
+      <c r="C74" s="51"/>
+      <c r="D74" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="42" t="s">
+      <c r="G74" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4383,17 +4367,17 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="76" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -4406,7 +4390,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:15" s="18" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="15" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4417,344 +4401,344 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:15" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="67" t="s">
+    <row r="78" spans="1:15" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69" t="s">
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="69"/>
-      <c r="H78" s="30"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="22" t="s">
+    <row r="79" spans="1:15" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="40"/>
+      <c r="B79" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="30"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+    <row r="80" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="F80" s="48">
+      <c r="F80" s="41">
         <v>200</v>
       </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="30"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+    <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="30"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="30"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="D83" s="43" t="s">
+      <c r="D83" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="28"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="24"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+    <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="E84" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="28"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+    <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="28"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+    <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="88" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="28"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+    <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="28"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+    <row r="88" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D88" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="28"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+    <row r="89" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="88" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="28"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+    <row r="90" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="88" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E90" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="28"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="24"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:15" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="13"/>
+    </row>
+    <row r="92" spans="1:15" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="15"/>
-    </row>
-    <row r="93" spans="1:15" s="16" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="19"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="13"/>
+    </row>
+    <row r="93" spans="1:15" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="69" t="s">
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="69"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="31"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
@@ -4763,895 +4747,976 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="13" t="s">
+      <c r="A95" s="40"/>
+      <c r="B95" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="23"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="19"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F96" s="75">
         <v>1.8</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="23"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="D97" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="23"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="19"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="F98" s="56"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="23"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="F99" s="56"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="26"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="22"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="D100" s="44" t="s">
+      <c r="D100" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="E100" s="44" t="s">
+      <c r="E100" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="26"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="22"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="C101" s="44" t="s">
+      <c r="C101" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="D101" s="44" t="s">
+      <c r="D101" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="56"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="26"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="22"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="F102" s="56"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="26"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="22"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C103" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="D103" s="44" t="s">
+      <c r="D103" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="F103" s="56"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="26"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="C104" s="44" t="s">
+      <c r="C104" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E104" s="89" t="s">
         <v>362</v>
       </c>
-      <c r="F104" s="58"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="26"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="22"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="23"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="45" t="s">
+      <c r="A108" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="69" t="s">
+      <c r="B108" s="38"/>
+      <c r="C108" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:11" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="89">
+    <row r="109" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="54">
         <v>94.8</v>
       </c>
-      <c r="B109" s="89"/>
-      <c r="C109" s="45">
+      <c r="B109" s="54"/>
+      <c r="C109" s="38">
         <v>250</v>
       </c>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:11" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-    </row>
-    <row r="111" spans="1:11" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:11" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+    </row>
+    <row r="111" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-    </row>
-    <row r="112" spans="1:11" s="16" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-    </row>
-    <row r="113" spans="1:15" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="46" t="s">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="1:11" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+    </row>
+    <row r="113" spans="1:15" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="38" t="s">
+      <c r="B113" s="72"/>
+      <c r="C113" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="47" t="s">
+      <c r="D113" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="47"/>
-      <c r="F113" s="39" t="s">
+      <c r="E113" s="90"/>
+      <c r="F113" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G113" s="40" t="s">
+      <c r="G113" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="47" t="s">
+      <c r="H113" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="47"/>
-    </row>
-    <row r="114" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-    </row>
-    <row r="115" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-    </row>
-    <row r="116" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-    </row>
-    <row r="117" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-    </row>
-    <row r="118" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-    </row>
-    <row r="119" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-    </row>
-    <row r="120" spans="1:15" s="16" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-    </row>
-    <row r="121" spans="1:15" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="30"/>
-    </row>
-    <row r="122" spans="1:15" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
-    </row>
-    <row r="123" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-    </row>
-    <row r="124" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-    </row>
-    <row r="125" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-    </row>
-    <row r="126" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-    </row>
-    <row r="127" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-    </row>
-    <row r="128" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
-    </row>
-    <row r="129" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-    </row>
-    <row r="130" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-    </row>
-    <row r="131" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
-    </row>
-    <row r="132" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-    </row>
-    <row r="133" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-    </row>
-    <row r="134" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-    </row>
-    <row r="135" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
-    </row>
-    <row r="136" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-    </row>
-    <row r="137" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
-    </row>
-    <row r="138" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-    </row>
-    <row r="139" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-    </row>
-    <row r="140" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
-    </row>
-    <row r="141" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
-    </row>
-    <row r="142" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
-    </row>
-    <row r="143" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
-    </row>
-    <row r="144" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-    </row>
-    <row r="145" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-    </row>
-    <row r="146" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
+      <c r="I113" s="90"/>
+    </row>
+    <row r="114" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+    </row>
+    <row r="115" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+    </row>
+    <row r="117" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+    </row>
+    <row r="119" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="1:15" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+    </row>
+    <row r="121" spans="1:15" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+    </row>
+    <row r="122" spans="1:15" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
+    </row>
+    <row r="123" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+    </row>
+    <row r="124" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+    </row>
+    <row r="125" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+    </row>
+    <row r="126" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+    </row>
+    <row r="127" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+    </row>
+    <row r="128" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="16"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+    </row>
+    <row r="129" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+    </row>
+    <row r="130" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13"/>
+    </row>
+    <row r="131" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+    </row>
+    <row r="132" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+    </row>
+    <row r="133" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="16"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+    </row>
+    <row r="134" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+    </row>
+    <row r="135" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+    </row>
+    <row r="136" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+    </row>
+    <row r="137" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+    </row>
+    <row r="138" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13"/>
+      <c r="O139" s="13"/>
+    </row>
+    <row r="140" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+    </row>
+    <row r="141" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+    </row>
+    <row r="142" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+    </row>
+    <row r="143" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+    </row>
+    <row r="144" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+    </row>
+    <row r="145" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+    </row>
+    <row r="146" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="F80:G90"/>
+    <mergeCell ref="F96:G104"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="H71:I72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G95"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B49:C49"/>
@@ -5676,97 +5741,16 @@
     <mergeCell ref="B30:C31"/>
     <mergeCell ref="H44:I45"/>
     <mergeCell ref="H34:I35"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G95"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H54:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="F80:G90"/>
-    <mergeCell ref="F96:G104"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.31496062992125984" top="0.74803149606299213" bottom="0.75181159420289856" header="0.31496062992125984" footer="0.31496062992125984"/>
